--- a/biology/Zoologie/Fowlerichthys/Fowlerichthys.xlsx
+++ b/biology/Zoologie/Fowlerichthys/Fowlerichthys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fowlerichthys est un genre de poissons de la famille Antennariidae communément appelés « poissons-grenouilles ».
-La première espèce décrite est Fowlerichthys ocellatus en 1801 par Bloch et Schneider[2].
+La première espèce décrite est Fowlerichthys ocellatus en 1801 par Bloch et Schneider.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (14 janvier 2021)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (14 janvier 2021) :
 Fowlerichthys avalonis D.S. Jordan &amp; Starks, 1907 (Poisson-grenouille à barre brute)
 Fowlerichthys ocellatus Bloch &amp; J.G. Schneider, 1801 (Poisson grenouille ocellé)
 Fowlerichthys radiosus Garman, 1896 (Poisson grenouille singlespot)
@@ -547,9 +561,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre Fowlerichthys lui a été donné en l'honneur de Henry Weed Fowler (1878-1965), de l'Académie des sciences naturelles de Philadelphie, qui a fourni le spécimen que Barbour a décrit sous le taxon Fowlerichthys floridanus (synonyme de Fowlerichthys radiosus)[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre Fowlerichthys lui a été donné en l'honneur de Henry Weed Fowler (1878-1965), de l'Académie des sciences naturelles de Philadelphie, qui a fourni le spécimen que Barbour a décrit sous le taxon Fowlerichthys floridanus (synonyme de Fowlerichthys radiosus).
 </t>
         </is>
       </c>
